--- a/data/test_data.xlsx
+++ b/data/test_data.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yitongzhang/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20603" windowHeight="8495"/>
+    <workbookView xWindow="2380" yWindow="6000" windowWidth="28160" windowHeight="15700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,7 +47,7 @@
     <t xml:space="preserve"> UNS</t>
   </si>
   <si>
-    <t>Very Low</t>
+    <t>very_low</t>
   </si>
   <si>
     <t>Low</t>
@@ -49,19 +62,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,152 +116,8 @@
       <family val="1"/>
       <charset val="162"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,194 +136,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -492,283 +169,40 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,6 +217,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -795,62 +232,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -860,7 +253,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -902,12 +295,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -937,12 +330,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1111,21 +504,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F146"/>
+      <selection sqref="A1:F146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.79279279279279" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="16.25" spans="1:6">
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="16.25" spans="1:6">
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1165,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="16.25" spans="1:6">
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.05</v>
       </c>
@@ -1173,19 +571,19 @@
         <v>0.05</v>
       </c>
       <c r="C3" s="3">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D3" s="5">
         <v>0.6</v>
       </c>
       <c r="E3" s="3">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="16.25" spans="1:6">
+    <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0.08</v>
       </c>
@@ -1205,7 +603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="16.25" spans="1:6">
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0.2</v>
       </c>
@@ -1225,7 +623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="16.25" spans="1:6">
+    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.22</v>
       </c>
@@ -1241,16 +639,16 @@
       <c r="E6" s="8">
         <v>0.9</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="16.25" spans="1:6">
+      <c r="F6" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="B7" s="7">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C7" s="9">
         <v>0.7</v>
@@ -1261,11 +659,11 @@
       <c r="E7" s="5">
         <v>0.3</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" ht="16.25" spans="1:6">
+      <c r="F7" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>0.16</v>
       </c>
@@ -1281,11 +679,11 @@
       <c r="E8" s="4">
         <v>0.5</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="16.25" spans="1:6">
+    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>0.12</v>
       </c>
@@ -1301,11 +699,11 @@
       <c r="E9" s="3">
         <v>0.15</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" ht="16.25" spans="1:6">
+      <c r="F9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>0.2</v>
       </c>
@@ -1321,11 +719,11 @@
       <c r="E10" s="8">
         <v>0.8</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" ht="16.25" spans="1:6">
+      <c r="F10" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>0.16</v>
       </c>
@@ -1339,18 +737,18 @@
         <v>0.1</v>
       </c>
       <c r="E11" s="3">
-        <v>0.07</v>
-      </c>
-      <c r="F11" s="3" t="s">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="16.25" spans="1:6">
+    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>0.11</v>
       </c>
       <c r="B12" s="7">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C12" s="9">
         <v>0.2</v>
@@ -1361,11 +759,11 @@
       <c r="E12" s="8">
         <v>0.66</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="16.25" spans="1:6">
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>0.18</v>
       </c>
@@ -1381,11 +779,11 @@
       <c r="E13" s="3">
         <v>0.04</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" ht="16.25" spans="1:6">
+    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>0.21</v>
       </c>
@@ -1401,16 +799,16 @@
       <c r="E14" s="8">
         <v>0.8</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" ht="16.25" spans="1:6">
+      <c r="F14" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>0.13</v>
       </c>
       <c r="B15" s="7">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C15" s="9">
         <v>0.18</v>
@@ -1421,16 +819,16 @@
       <c r="E15" s="5">
         <v>0.32</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" ht="16.25" spans="1:6">
+    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>0.23</v>
       </c>
       <c r="B16" s="7">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C16" s="9">
         <v>0.45</v>
@@ -1441,11 +839,11 @@
       <c r="E16" s="8">
         <v>0.88</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" ht="16.25" spans="1:6">
+      <c r="F16" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>0.1</v>
       </c>
@@ -1461,11 +859,11 @@
       <c r="E17" s="3">
         <v>0.05</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" ht="16.25" spans="1:6">
+    <row r="18" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>0.22</v>
       </c>
@@ -1481,11 +879,11 @@
       <c r="E18" s="8">
         <v>0.8</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" ht="16.25" spans="1:6">
+      <c r="F18" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -1499,33 +897,33 @@
         <v>0.09</v>
       </c>
       <c r="E19" s="3">
-        <v>0.07</v>
-      </c>
-      <c r="F19" s="3" t="s">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="16.25" spans="1:6">
+    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.05</v>
       </c>
       <c r="B20" s="7">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C20" s="3">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D20" s="3">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E20" s="5">
         <v>0.32</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" ht="16.25" spans="1:6">
+      <c r="F20" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>0.1</v>
       </c>
@@ -1533,19 +931,19 @@
         <v>0.3</v>
       </c>
       <c r="C21" s="3">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D21" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E21" s="4">
-        <v>0.55</v>
-      </c>
-      <c r="F21" s="3" t="s">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" ht="16.25" spans="1:6">
+    <row r="22" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>0.2</v>
       </c>
@@ -1561,31 +959,31 @@
       <c r="E22" s="8">
         <v>0.89</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" ht="16.25" spans="1:6">
+      <c r="F22" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>0.19</v>
       </c>
       <c r="B23" s="7">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C23" s="3">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D23" s="5">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E23" s="3">
         <v>0.17</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" ht="16.25" spans="1:6">
+      <c r="F23" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>0.11</v>
       </c>
@@ -1593,7 +991,7 @@
         <v>0.26</v>
       </c>
       <c r="C24" s="3">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D24" s="8">
         <v>0.68</v>
@@ -1601,16 +999,16 @@
       <c r="E24" s="5">
         <v>0.27</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" ht="16.25" spans="1:6">
+      <c r="F24" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>0.12</v>
       </c>
       <c r="B25" s="7">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C25" s="9">
         <v>0.7</v>
@@ -1621,16 +1019,16 @@
       <c r="E25" s="5">
         <v>0.32</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" ht="16.25" spans="1:6">
+      <c r="F25" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>0.18</v>
       </c>
       <c r="B26" s="7">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C26" s="9">
         <v>0.78</v>
@@ -1641,11 +1039,11 @@
       <c r="E26" s="4">
         <v>0.61</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" ht="16.25" spans="1:6">
+    <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>0.2</v>
       </c>
@@ -1661,16 +1059,16 @@
       <c r="E27" s="3">
         <v>0.03</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" ht="16.25" spans="1:6">
+    <row r="28" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>0.16</v>
       </c>
       <c r="B28" s="7">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C28" s="9">
         <v>0.72</v>
@@ -1681,511 +1079,511 @@
       <c r="E28" s="5">
         <v>0.32</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" ht="16.25" spans="1:6">
-      <c r="A29" s="10">
+      <c r="F28" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <v>0.11</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="12">
         <v>0.3</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="13">
         <v>0.79</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="14">
         <v>0.8</v>
       </c>
       <c r="E29" s="5">
         <v>0.32</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" ht="16.25" spans="1:6">
-      <c r="A30" s="10">
+    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>0.18</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="12">
         <v>0.31</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="13">
         <v>0.81</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="14">
         <v>0.7</v>
       </c>
       <c r="E30" s="4">
         <v>0.4</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" ht="16.25" spans="1:6">
-      <c r="A31" s="10">
+    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>0.1</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="16">
         <v>0.33</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="13">
         <v>0.02</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="16">
         <v>0</v>
       </c>
       <c r="E31" s="5">
         <v>0.25</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" ht="16.25" spans="1:6">
-      <c r="A32" s="10">
+    <row r="32" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>0.18</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="16">
         <v>0.37</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="13">
         <v>0.11</v>
       </c>
-      <c r="D32" s="15">
-        <v>0.28</v>
+      <c r="D32" s="17">
+        <v>0.28000000000000003</v>
       </c>
       <c r="E32" s="5">
         <v>0.3</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" ht="16.25" spans="1:6">
-      <c r="A33" s="10">
+      <c r="F32" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <v>0.13</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="16">
         <v>0.4</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="13">
         <v>0.17</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="17">
         <v>0.25</v>
       </c>
       <c r="E33" s="4">
         <v>0.38</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" ht="16.25" spans="1:6">
-      <c r="A34" s="10">
+      <c r="F33" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>0.11</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="16">
         <v>0.42</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="12">
         <v>0.38</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="14">
         <v>0.82</v>
       </c>
       <c r="E34" s="5">
         <v>0.31</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" ht="16.25" spans="1:6">
-      <c r="A35" s="10">
+    <row r="35" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <v>0.22</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="16">
         <v>0.48</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="12">
         <v>0.47</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="14">
         <v>0.78</v>
       </c>
       <c r="E35" s="8">
         <v>0.81</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" ht="16.25" spans="1:6">
-      <c r="A36" s="16">
-        <v>0.14</v>
-      </c>
-      <c r="B36" s="14">
+      <c r="F35" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B36" s="16">
         <v>0.38</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="16">
         <v>0.59</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="16">
         <v>0.11</v>
       </c>
       <c r="E36" s="5">
         <v>0.32</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" ht="16.25" spans="1:6">
-      <c r="A37" s="16">
+      <c r="F36" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
         <v>0.15</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="16">
         <v>0.42</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="16">
         <v>0.6</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="16">
         <v>0.15</v>
       </c>
       <c r="E37" s="4">
         <v>0.62</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" ht="16.25" spans="1:6">
-      <c r="A38" s="10">
+    <row r="38" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
         <v>0.09</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="16">
         <v>0.38</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="16">
         <v>0.54</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="14">
         <v>0.69</v>
       </c>
       <c r="E38" s="3">
         <v>0.21</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" ht="16.25" spans="1:6">
-      <c r="A39" s="10">
+      <c r="F38" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
         <v>0.2</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="16">
         <v>0.49</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="16">
         <v>0.68</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="14">
         <v>0.76</v>
       </c>
       <c r="E39" s="8">
         <v>0.78</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" ht="16.25" spans="1:6">
-      <c r="A40" s="10">
+      <c r="F39" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
         <v>0.12</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="13">
         <v>0.62</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="13">
         <v>0.21</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="17">
         <v>0.3</v>
       </c>
       <c r="E40" s="4">
         <v>0.59</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" ht="16.25" spans="1:6">
-      <c r="A41" s="10">
-        <v>0.14</v>
-      </c>
-      <c r="B41" s="12">
+    <row r="41" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B41" s="13">
         <v>0.65</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="13">
         <v>0.19</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="17">
         <v>0.26</v>
       </c>
       <c r="E41" s="8">
         <v>0.66</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" ht="16.25" spans="1:6">
-      <c r="A42" s="10">
+    <row r="42" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
         <v>0.16</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="13">
         <v>0.51</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="13">
         <v>0.09</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="19">
         <v>0.38</v>
       </c>
       <c r="E42" s="3">
         <v>0.1</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" ht="16.25" spans="1:6">
-      <c r="A43" s="10">
+    <row r="43" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
         <v>0.12</v>
       </c>
-      <c r="B43" s="12">
-        <v>0.56</v>
-      </c>
-      <c r="C43" s="12">
+      <c r="B43" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C43" s="13">
         <v>0.13</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="19">
         <v>0.48</v>
       </c>
       <c r="E43" s="5">
         <v>0.32</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" ht="16.25" spans="1:6">
-      <c r="A44" s="10">
+      <c r="F43" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
         <v>0.2</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="13">
         <v>0.85</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="13">
         <v>0.24</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="14">
         <v>0.79</v>
       </c>
       <c r="E44" s="8">
         <v>0.85</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" ht="16.25" spans="1:6">
-      <c r="A45" s="10">
+      <c r="F44" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
         <v>0.16</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="13">
         <v>0.52</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="12">
         <v>0.3</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="16">
         <v>0.09</v>
       </c>
       <c r="E45" s="3">
         <v>0.11</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" ht="16.25" spans="1:6">
-      <c r="A46" s="10">
+    <row r="46" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
         <v>0.21</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="13">
         <v>0.78</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="12">
         <v>0.42</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="17">
         <v>0.32</v>
       </c>
       <c r="E46" s="8">
         <v>0.84</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" ht="16.25" spans="1:6">
-      <c r="A47" s="10">
+      <c r="F46" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
         <v>0.08</v>
       </c>
-      <c r="B47" s="12">
-        <v>0.56</v>
-      </c>
-      <c r="C47" s="11">
+      <c r="B47" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C47" s="12">
         <v>0.33</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="19">
         <v>0.4</v>
       </c>
       <c r="E47" s="3">
         <v>0.1</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" ht="16.25" spans="1:6">
-      <c r="A48" s="10">
-        <v>0.14</v>
-      </c>
-      <c r="B48" s="12">
+    <row r="48" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B48" s="13">
         <v>0.61</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="12">
         <v>0.39</v>
       </c>
-      <c r="D48" s="17">
-        <v>0.56</v>
+      <c r="D48" s="19">
+        <v>0.56000000000000005</v>
       </c>
       <c r="E48" s="4">
-        <v>0.56</v>
-      </c>
-      <c r="F48" s="9" t="s">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" ht="16.25" spans="1:6">
-      <c r="A49" s="10">
+    <row r="49" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
         <v>0.18</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="13">
         <v>0.7</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="12">
         <v>0.41</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="14">
         <v>0.67</v>
       </c>
       <c r="E49" s="4">
         <v>0.33</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" ht="16.25" spans="1:6">
-      <c r="A50" s="10">
+    <row r="50" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
         <v>0.22</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="13">
         <v>0.8</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="12">
         <v>0.44</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="14">
         <v>0.78</v>
       </c>
       <c r="E50" s="8">
         <v>0.88</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" ht="16.25" spans="1:6">
-      <c r="A51" s="10">
+      <c r="F50" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
         <v>0.1</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="13">
         <v>0.6</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="16">
         <v>0.51</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="16">
         <v>0.1</v>
       </c>
       <c r="E51" s="3">
         <v>0.01</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" ht="16.25" spans="1:6">
-      <c r="A52" s="10">
+    <row r="52" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
         <v>0.15</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="13">
         <v>0.67</v>
       </c>
-      <c r="C52" s="14">
-        <v>0.56</v>
-      </c>
-      <c r="D52" s="14">
-        <v>0.07</v>
+      <c r="C52" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D52" s="16">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E52" s="8">
         <v>0.66</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" ht="16.25" spans="1:6">
-      <c r="A53" s="16">
+    <row r="53" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
         <v>0</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="13">
         <v>0.62</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="16">
         <v>0.52</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="17">
         <v>0.26</v>
       </c>
       <c r="E53" s="3">
-        <v>0.07</v>
-      </c>
-      <c r="F53" s="9" t="s">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" ht="16.25" spans="1:6">
+    <row r="54" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>0.11</v>
       </c>
@@ -2201,31 +1599,31 @@
       <c r="E54" s="8">
         <v>0.89</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" ht="16.25" spans="1:6">
+      <c r="F54" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>0.08</v>
       </c>
       <c r="B55" s="9">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C55" s="9">
         <v>0.7</v>
       </c>
       <c r="D55" s="3">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E55" s="3">
         <v>0.1</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" ht="16.25" spans="1:6">
+    <row r="56" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>0.21</v>
       </c>
@@ -2241,16 +1639,16 @@
       <c r="E56" s="8">
         <v>0.92</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" ht="16.25" spans="1:6">
+      <c r="F56" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>0.08</v>
       </c>
       <c r="B57" s="9">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C57" s="9">
         <v>0.71</v>
@@ -2261,11 +1659,11 @@
       <c r="E57" s="3">
         <v>0.09</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" ht="16.25" spans="1:6">
+    <row r="58" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>0.13</v>
       </c>
@@ -2276,16 +1674,16 @@
         <v>0.77</v>
       </c>
       <c r="D58" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E58" s="5">
         <v>0.31</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" ht="16.25" spans="1:6">
+      <c r="F58" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>0.21</v>
       </c>
@@ -2296,16 +1694,16 @@
         <v>0.87</v>
       </c>
       <c r="D59" s="5">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E59" s="8">
         <v>0.95</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" ht="16.25" spans="1:6">
+      <c r="F59" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>0.22</v>
       </c>
@@ -2321,11 +1719,11 @@
       <c r="E60" s="4">
         <v>0.65</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" ht="16.25" spans="1:6">
+      <c r="F60" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>0.2</v>
       </c>
@@ -2341,11 +1739,11 @@
       <c r="E61" s="8">
         <v>0.85</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" ht="16.25" spans="1:6">
+      <c r="F61" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>0.25</v>
       </c>
@@ -2361,13 +1759,13 @@
       <c r="E62" s="4">
         <v>0.37</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" ht="16.25" spans="1:6">
+      <c r="F62" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="B63" s="3">
         <v>0.1</v>
@@ -2381,11 +1779,11 @@
       <c r="E63" s="4">
         <v>0.52</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" ht="16.25" spans="1:6">
+    <row r="64" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>0.3</v>
       </c>
@@ -2401,11 +1799,11 @@
       <c r="E64" s="8">
         <v>0.84</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" ht="16.25" spans="1:6">
+      <c r="F64" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>0.32</v>
       </c>
@@ -2421,13 +1819,13 @@
       <c r="E65" s="5">
         <v>0.31</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" ht="16.25" spans="1:6">
+      <c r="F65" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B66" s="7">
         <v>0.12</v>
@@ -2441,11 +1839,11 @@
       <c r="E66" s="4">
         <v>0.6</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" ht="16.25" spans="1:6">
+    <row r="67" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>0.26</v>
       </c>
@@ -2456,18 +1854,18 @@
         <v>0.33</v>
       </c>
       <c r="D67" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E67" s="5">
         <v>0.32</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" ht="16.25" spans="1:6">
+      <c r="F67" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B68" s="7">
         <v>0.16</v>
@@ -2479,13 +1877,13 @@
         <v>0.51</v>
       </c>
       <c r="E68" s="4">
-        <v>0.56</v>
-      </c>
-      <c r="F68" s="3" t="s">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F68" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" ht="16.25" spans="1:6">
+    <row r="69" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>0.26</v>
       </c>
@@ -2499,13 +1897,13 @@
         <v>0.68</v>
       </c>
       <c r="E69" s="5">
-        <v>0.29</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" ht="16.25" spans="1:6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>0.31</v>
       </c>
@@ -2521,11 +1919,11 @@
       <c r="E70" s="8">
         <v>0.83</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" ht="16.25" spans="1:6">
+      <c r="F70" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>0.25</v>
       </c>
@@ -2541,11 +1939,11 @@
       <c r="E71" s="3">
         <v>0.12</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" ht="16.25" spans="1:6">
+    <row r="72" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>0.32</v>
       </c>
@@ -2561,13 +1959,13 @@
       <c r="E72" s="8">
         <v>0.82</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" ht="16.25" spans="1:6">
+      <c r="F72" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B73" s="7">
         <v>0.08</v>
@@ -2581,11 +1979,11 @@
       <c r="E73" s="3">
         <v>0.08</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" ht="16.25" spans="1:6">
+    <row r="74" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>0.33</v>
       </c>
@@ -2601,11 +1999,11 @@
       <c r="E74" s="8">
         <v>0.94</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" ht="16.25" spans="1:6">
+      <c r="F74" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>0.31</v>
       </c>
@@ -2613,7 +2011,7 @@
         <v>0.15</v>
       </c>
       <c r="C75" s="3">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D75" s="8">
         <v>0.76</v>
@@ -2621,13 +2019,13 @@
       <c r="E75" s="4">
         <v>0.52</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" ht="16.25" spans="1:6">
+    <row r="76" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B76" s="7">
         <v>0.06</v>
@@ -2641,11 +2039,11 @@
       <c r="E76" s="5">
         <v>0.32</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" ht="16.25" spans="1:6">
+      <c r="F76" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>0.3</v>
       </c>
@@ -2661,11 +2059,11 @@
       <c r="E77" s="8">
         <v>0.95</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" ht="16.25" spans="1:6">
+      <c r="F77" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>0.27</v>
       </c>
@@ -2681,11 +2079,11 @@
       <c r="E78" s="3">
         <v>0.23</v>
       </c>
-      <c r="F78" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" ht="16.25" spans="1:6">
+      <c r="F78" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>0.32</v>
       </c>
@@ -2701,11 +2099,11 @@
       <c r="E79" s="8">
         <v>0.8</v>
       </c>
-      <c r="F79" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" ht="16.25" spans="1:6">
+      <c r="F79" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>0.31</v>
       </c>
@@ -2713,7 +2111,7 @@
         <v>0.32</v>
       </c>
       <c r="C80" s="9">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D80" s="4">
         <v>0.31</v>
@@ -2721,16 +2119,16 @@
       <c r="E80" s="8">
         <v>0.96</v>
       </c>
-      <c r="F80" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" ht="16.25" spans="1:6">
+      <c r="F80" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B81" s="7">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C81" s="9">
         <v>0.19</v>
@@ -2739,13 +2137,13 @@
         <v>0.37</v>
       </c>
       <c r="E81" s="4">
-        <v>0.58</v>
-      </c>
-      <c r="F81" s="7" t="s">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F81" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" ht="16.25" spans="1:6">
+    <row r="82" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>0.32</v>
       </c>
@@ -2761,31 +2159,31 @@
       <c r="E82" s="8">
         <v>0.77</v>
       </c>
-      <c r="F82" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" ht="16.25" spans="1:6">
+      <c r="F82" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>0.25</v>
       </c>
       <c r="B83" s="7">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C83" s="7">
         <v>0.3</v>
       </c>
       <c r="D83" s="3">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="E83" s="5">
         <v>0.25</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" ht="16.25" spans="1:6">
+    <row r="84" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>0.26</v>
       </c>
@@ -2801,51 +2199,51 @@
       <c r="E84" s="3">
         <v>0.13</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" ht="16.25" spans="1:6">
+    <row r="85" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>0.27</v>
       </c>
       <c r="B85" s="7">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C85" s="7">
         <v>0.34</v>
       </c>
       <c r="D85" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E85" s="5">
         <v>0.32</v>
       </c>
-      <c r="F85" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" ht="16.25" spans="1:6">
+      <c r="F85" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B86" s="7">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C86" s="7">
         <v>0.38</v>
       </c>
       <c r="D86" s="4">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E86" s="4">
         <v>0.62</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="87" ht="16.25" spans="1:6">
+    <row r="87" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>0.26</v>
       </c>
@@ -2861,11 +2259,11 @@
       <c r="E87" s="3">
         <v>0.24</v>
       </c>
-      <c r="F87" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" ht="16.25" spans="1:6">
+      <c r="F87" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>0.3</v>
       </c>
@@ -2881,11 +2279,11 @@
       <c r="E88" s="8">
         <v>0.83</v>
       </c>
-      <c r="F88" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" ht="16.25" spans="1:6">
+      <c r="F88" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>0.25</v>
       </c>
@@ -2901,31 +2299,31 @@
       <c r="E89" s="3">
         <v>0.13</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="90" ht="16.25" spans="1:6">
+    <row r="90" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B90" s="7">
         <v>0.27</v>
       </c>
       <c r="C90" s="3">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D90" s="3">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E90" s="5">
         <v>0.31</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" ht="16.25" spans="1:6">
+      <c r="F90" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>0.31</v>
       </c>
@@ -2941,19 +2339,19 @@
       <c r="E91" s="8">
         <v>0.98</v>
       </c>
-      <c r="F91" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" ht="16.25" spans="1:6">
+      <c r="F91" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B92" s="7">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C92" s="3">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D92" s="5">
         <v>0.6</v>
@@ -2961,16 +2359,16 @@
       <c r="E92" s="5">
         <v>0.27</v>
       </c>
-      <c r="F92" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" ht="16.25" spans="1:6">
+      <c r="F92" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>0.27</v>
       </c>
       <c r="B93" s="7">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C93" s="3">
         <v>0.59</v>
@@ -2981,16 +2379,16 @@
       <c r="E93" s="5">
         <v>0.26</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="94" ht="16.25" spans="1:6">
+    <row r="94" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>0.25</v>
       </c>
       <c r="B94" s="7">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C94" s="3">
         <v>0.77</v>
@@ -3001,11 +2399,11 @@
       <c r="E94" s="5">
         <v>0.31</v>
       </c>
-      <c r="F94" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" ht="16.25" spans="1:6">
+      <c r="F94" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>0.25</v>
       </c>
@@ -3021,13 +2419,13 @@
       <c r="E95" s="3">
         <v>0.08</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="96" ht="16.25" spans="1:6">
+    <row r="96" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="B96" s="7">
         <v>0.66</v>
@@ -3036,18 +2434,18 @@
         <v>0.35</v>
       </c>
       <c r="D96" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E96" s="5">
         <v>0.31</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" ht="16.25" spans="1:6">
+      <c r="F96" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="B97" s="7">
         <v>0.74</v>
@@ -3061,11 +2459,11 @@
       <c r="E97" s="4">
         <v>0.54</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" ht="16.25" spans="1:6">
+    <row r="98" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>0.31</v>
       </c>
@@ -3081,16 +2479,16 @@
       <c r="E98" s="8">
         <v>0.99</v>
       </c>
-      <c r="F98" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" ht="16.25" spans="1:6">
+      <c r="F98" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B99" s="7">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C99" s="7">
         <v>0.38</v>
@@ -3101,11 +2499,11 @@
       <c r="E99" s="3">
         <v>0.22</v>
       </c>
-      <c r="F99" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" ht="16.25" spans="1:6">
+      <c r="F99" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>0.33</v>
       </c>
@@ -3121,11 +2519,11 @@
       <c r="E100" s="3">
         <v>0.11</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" ht="16.25" spans="1:6">
+    <row r="101" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>0.37</v>
       </c>
@@ -3141,11 +2539,11 @@
       <c r="E101" s="5">
         <v>0.32</v>
       </c>
-      <c r="F101" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" ht="16.25" spans="1:6">
+      <c r="F101" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>0.4</v>
       </c>
@@ -3159,18 +2557,18 @@
         <v>0.3</v>
       </c>
       <c r="E102" s="4">
-        <v>0.58</v>
-      </c>
-      <c r="F102" s="7" t="s">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F102" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" ht="16.25" spans="1:6">
+    <row r="103" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>0.37</v>
       </c>
       <c r="B103" s="7">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C103" s="9">
         <v>0.1</v>
@@ -3181,11 +2579,11 @@
       <c r="E103" s="5">
         <v>0.3</v>
       </c>
-      <c r="F103" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" ht="16.25" spans="1:6">
+      <c r="F103" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>0.41</v>
       </c>
@@ -3199,13 +2597,13 @@
         <v>0.44</v>
       </c>
       <c r="E104" s="4">
-        <v>0.57</v>
-      </c>
-      <c r="F104" s="7" t="s">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F104" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105" ht="16.25" spans="1:6">
+    <row r="105" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>0.42</v>
       </c>
@@ -3221,11 +2619,11 @@
       <c r="E105" s="5">
         <v>0.3</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="106" ht="16.25" spans="1:6">
+    <row r="106" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>0.41</v>
       </c>
@@ -3241,11 +2639,11 @@
       <c r="E106" s="3">
         <v>0.12</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="107" ht="16.25" spans="1:6">
+    <row r="107" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>0.38</v>
       </c>
@@ -3256,24 +2654,24 @@
         <v>0.37</v>
       </c>
       <c r="D107" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E107" s="5">
         <v>0.32</v>
       </c>
-      <c r="F107" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" ht="16.25" spans="1:6">
+      <c r="F107" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>0.42</v>
       </c>
       <c r="B108" s="7">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C108" s="3">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D108" s="3">
         <v>0.03</v>
@@ -3281,11 +2679,11 @@
       <c r="E108" s="8">
         <v>0.68</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="109" ht="16.25" spans="1:6">
+    <row r="109" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>0.4</v>
       </c>
@@ -3296,16 +2694,16 @@
         <v>0.18</v>
       </c>
       <c r="D109" s="4">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E109" s="4">
         <v>0.59</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="F109" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="110" ht="16.25" spans="1:6">
+    <row r="110" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>0.38</v>
       </c>
@@ -3316,16 +2714,16 @@
         <v>0.1</v>
       </c>
       <c r="D110" s="3">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E110" s="4">
         <v>0.4</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" ht="16.25" spans="1:6">
+      <c r="F110" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>0.47</v>
       </c>
@@ -3341,11 +2739,11 @@
       <c r="E111" s="4">
         <v>0.61</v>
       </c>
-      <c r="F111" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" ht="16.25" spans="1:6">
+      <c r="F111" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>0.41</v>
       </c>
@@ -3361,11 +2759,11 @@
       <c r="E112" s="5">
         <v>0.32</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" ht="16.25" spans="1:6">
+      <c r="F112" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>0.42</v>
       </c>
@@ -3381,11 +2779,11 @@
       <c r="E113" s="3">
         <v>0.2</v>
       </c>
-      <c r="F113" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" ht="16.25" spans="1:6">
+      <c r="F113" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>0.36</v>
       </c>
@@ -3393,7 +2791,7 @@
         <v>0.52</v>
       </c>
       <c r="C114" s="3">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D114" s="3">
         <v>0.1</v>
@@ -3401,11 +2799,11 @@
       <c r="E114" s="3">
         <v>0.15</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="F114" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="115" ht="16.25" spans="1:6">
+    <row r="115" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>0.4</v>
       </c>
@@ -3421,12 +2819,12 @@
       <c r="E115" s="3">
         <v>0.24</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="F115" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="116" ht="16.25" spans="1:6">
-      <c r="A116" s="18">
+    <row r="116" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="21">
         <v>0.43</v>
       </c>
       <c r="B116" s="3">
@@ -3439,14 +2837,14 @@
         <v>0.94</v>
       </c>
       <c r="E116" s="5">
-        <v>0.29</v>
-      </c>
-      <c r="F116" s="3" t="s">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F116" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="117" ht="16.25" spans="1:6">
-      <c r="A117" s="18">
+    <row r="117" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="21">
         <v>0.6</v>
       </c>
       <c r="B117" s="7">
@@ -3456,17 +2854,17 @@
         <v>0.13</v>
       </c>
       <c r="D117" s="3">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E117" s="5">
         <v>0.32</v>
       </c>
-      <c r="F117" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" ht="16.25" spans="1:6">
-      <c r="A118" s="18">
+      <c r="F117" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="21">
         <v>0.8</v>
       </c>
       <c r="B118" s="7">
@@ -3476,17 +2874,17 @@
         <v>0.23</v>
       </c>
       <c r="D118" s="4">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E118" s="8">
         <v>0.98</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" ht="16.25" spans="1:6">
-      <c r="A119" s="18">
+      <c r="F118" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="21">
         <v>0.65</v>
       </c>
       <c r="B119" s="7">
@@ -3501,12 +2899,12 @@
       <c r="E119" s="5">
         <v>0.31</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" ht="16.25" spans="1:6">
-      <c r="A120" s="18">
+      <c r="F119" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="21">
         <v>0.68</v>
       </c>
       <c r="B120" s="7">
@@ -3521,12 +2919,12 @@
       <c r="E120" s="4">
         <v>0.6</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F120" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="121" ht="16.25" spans="1:6">
-      <c r="A121" s="18">
+    <row r="121" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="21">
         <v>0.75</v>
       </c>
       <c r="B121" s="7">
@@ -3541,12 +2939,12 @@
       <c r="E121" s="4">
         <v>0.62</v>
       </c>
-      <c r="F121" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" ht="16.25" spans="1:6">
-      <c r="A122" s="18">
+      <c r="F121" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="21">
         <v>0.87</v>
       </c>
       <c r="B122" s="7">
@@ -3561,12 +2959,12 @@
       <c r="E122" s="8">
         <v>0.8</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" ht="16.25" spans="1:6">
-      <c r="A123" s="18">
+      <c r="F122" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="21">
         <v>0.52</v>
       </c>
       <c r="B123" s="7">
@@ -3576,17 +2974,17 @@
         <v>0.33</v>
       </c>
       <c r="D123" s="3">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E123" s="3">
         <v>0.09</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="F123" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="124" ht="16.25" spans="1:6">
-      <c r="A124" s="18">
+    <row r="124" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="21">
         <v>0.62</v>
       </c>
       <c r="B124" s="7">
@@ -3601,19 +2999,19 @@
       <c r="E124" s="5">
         <v>0.32</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" ht="16.25" spans="1:6">
-      <c r="A125" s="18">
+      <c r="F124" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="21">
         <v>0.68</v>
       </c>
       <c r="B125" s="7">
         <v>0.15</v>
       </c>
       <c r="C125" s="7">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D125" s="5">
         <v>0.35</v>
@@ -3621,19 +3019,19 @@
       <c r="E125" s="4">
         <v>0.6</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="F125" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" ht="16.25" spans="1:6">
-      <c r="A126" s="18">
+    <row r="126" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="21">
         <v>0.54</v>
       </c>
       <c r="B126" s="7">
         <v>0.25</v>
       </c>
       <c r="C126" s="3">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D126" s="3">
         <v>0.09</v>
@@ -3641,12 +3039,12 @@
       <c r="E126" s="3">
         <v>0.11</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="F126" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="127" ht="16.25" spans="1:6">
-      <c r="A127" s="18">
+    <row r="127" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="21">
         <v>0.9</v>
       </c>
       <c r="B127" s="7">
@@ -3661,13 +3059,13 @@
       <c r="E127" s="8">
         <v>0.97</v>
       </c>
-      <c r="F127" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" ht="16.25" spans="1:6">
-      <c r="A128" s="18">
-        <v>0.56</v>
+      <c r="F127" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="21">
+        <v>0.56000000000000005</v>
       </c>
       <c r="B128" s="7">
         <v>0.27</v>
@@ -3681,12 +3079,12 @@
       <c r="E128" s="3">
         <v>0.22</v>
       </c>
-      <c r="F128" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" ht="16.25" spans="1:6">
-      <c r="A129" s="18">
+      <c r="F128" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="21">
         <v>0.85</v>
       </c>
       <c r="B129" s="7">
@@ -3701,16 +3099,16 @@
       <c r="E129" s="8">
         <v>0.79</v>
       </c>
-      <c r="F129" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" ht="16.25" spans="1:6">
-      <c r="A130" s="18">
+      <c r="F129" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="21">
         <v>0.52</v>
       </c>
       <c r="B130" s="7">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C130" s="7">
         <v>0.32</v>
@@ -3721,12 +3119,12 @@
       <c r="E130" s="3">
         <v>0.1</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="F130" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="131" ht="16.25" spans="1:6">
-      <c r="A131" s="18">
+    <row r="131" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="21">
         <v>0.78</v>
       </c>
       <c r="B131" s="3">
@@ -3741,13 +3139,13 @@
       <c r="E131" s="8">
         <v>0.93</v>
       </c>
-      <c r="F131" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" ht="16.25" spans="1:6">
-      <c r="A132" s="18">
-        <v>0.56</v>
+      <c r="F131" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="21">
+        <v>0.56000000000000005</v>
       </c>
       <c r="B132" s="3">
         <v>0.35</v>
@@ -3761,12 +3159,12 @@
       <c r="E132" s="3">
         <v>0.23</v>
       </c>
-      <c r="F132" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" ht="16.25" spans="1:6">
-      <c r="A133" s="18">
+      <c r="F132" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="21">
         <v>0.61</v>
       </c>
       <c r="B133" s="3">
@@ -3781,19 +3179,19 @@
       <c r="E133" s="5">
         <v>0.3</v>
       </c>
-      <c r="F133" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" ht="16.25" spans="1:6">
-      <c r="A134" s="18">
+      <c r="F133" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="21">
         <v>0.78</v>
       </c>
       <c r="B134" s="3">
         <v>0.47</v>
       </c>
       <c r="C134" s="3">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D134" s="8">
         <v>0.98</v>
@@ -3801,13 +3199,13 @@
       <c r="E134" s="4">
         <v>0.59</v>
       </c>
-      <c r="F134" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" ht="16.25" spans="1:6">
-      <c r="A135" s="18">
-        <v>0.58</v>
+      <c r="F134" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="21">
+        <v>0.57999999999999996</v>
       </c>
       <c r="B135" s="3">
         <v>0.4</v>
@@ -3825,8 +3223,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" ht="16.25" spans="1:6">
-      <c r="A136" s="18">
+    <row r="136" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="21">
         <v>0.68</v>
       </c>
       <c r="B136" s="3">
@@ -3839,15 +3237,15 @@
         <v>0.47</v>
       </c>
       <c r="E136" s="4">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="137" ht="16.25" spans="1:6">
-      <c r="A137" s="18">
-        <v>0.57</v>
+    <row r="137" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="21">
+        <v>0.56999999999999995</v>
       </c>
       <c r="B137" s="3">
         <v>0.37</v>
@@ -3865,12 +3263,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" ht="16.25" spans="1:6">
-      <c r="A138" s="18">
+    <row r="138" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="21">
         <v>0.62</v>
       </c>
       <c r="B138" s="3">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C138" s="3">
         <v>0.11</v>
@@ -3885,15 +3283,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" ht="16.25" spans="1:6">
-      <c r="A139" s="18">
+    <row r="139" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="21">
         <v>0.64</v>
       </c>
       <c r="B139" s="3">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C139" s="3">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D139" s="4">
         <v>0.32</v>
@@ -3905,8 +3303,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" ht="16.25" spans="1:6">
-      <c r="A140" s="18">
+    <row r="140" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="21">
         <v>0.64</v>
       </c>
       <c r="B140" s="3">
@@ -3916,7 +3314,7 @@
         <v>0.12</v>
       </c>
       <c r="D140" s="5">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E140" s="3">
         <v>0.24</v>
@@ -3925,8 +3323,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" ht="16.25" spans="1:6">
-      <c r="A141" s="18">
+    <row r="141" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="21">
         <v>0.68</v>
       </c>
       <c r="B141" s="3">
@@ -3945,8 +3343,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" ht="16.25" spans="1:6">
-      <c r="A142" s="18">
+    <row r="142" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="21">
         <v>0.9</v>
       </c>
       <c r="B142" s="3">
@@ -3965,8 +3363,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" ht="16.25" spans="1:6">
-      <c r="A143" s="18">
+    <row r="143" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="21">
         <v>0.85</v>
       </c>
       <c r="B143" s="3">
@@ -3985,9 +3383,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" ht="16.25" spans="1:6">
-      <c r="A144" s="18">
-        <v>0.56</v>
+    <row r="144" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="21">
+        <v>0.56000000000000005</v>
       </c>
       <c r="B144" s="3">
         <v>0.6</v>
@@ -4005,8 +3403,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" ht="16.25" spans="1:6">
-      <c r="A145" s="18">
+    <row r="145" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="21">
         <v>0.66</v>
       </c>
       <c r="B145" s="3">
@@ -4016,17 +3414,17 @@
         <v>0.81</v>
       </c>
       <c r="D145" s="5">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E145" s="4">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="146" ht="16.25" spans="1:6">
-      <c r="A146" s="18">
+    <row r="146" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="21">
         <v>0.68</v>
       </c>
       <c r="B146" s="3">
@@ -4046,7 +3444,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>